--- a/download/modern_history.xlsx
+++ b/download/modern_history.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9765"/>
+    <workbookView windowWidth="25600" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>北美洲</t>
   </si>
@@ -195,13 +195,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1649-1658年</t>
     </r>
     <r>
@@ -210,7 +203,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>克伦威尔</t>
     </r>
@@ -218,22 +210,35 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>执政
-1651年托马斯·霍布斯《利维坦》</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+1651年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>托马斯·霍布斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《利维坦》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1662年成立</t>
     </r>
@@ -243,7 +248,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>英国皇家学会</t>
     </r>
@@ -253,9 +257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1661年</t>
     </r>
@@ -265,7 +267,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>路易十四</t>
     </r>
@@ -273,9 +274,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>亲政
 “朕即国家”
@@ -287,7 +286,6 @@
         <color rgb="FF002060"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>法国皇家科学院</t>
     </r>
@@ -304,9 +302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1661年</t>
     </r>
@@ -316,7 +312,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>康熙</t>
     </r>
@@ -324,15 +319,14 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>即位</t>
     </r>
   </si>
   <si>
-    <t>1672年奥兰治的威廉执政</t>
+    <t>1672年奥兰治的威廉执政
+1677年斯宾诺莎《伦理学》</t>
   </si>
   <si>
     <t>马拉塔帝国</t>
@@ -342,9 +336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1687年</t>
     </r>
@@ -354,7 +346,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>牛顿《自然哲学的数学原理》</t>
     </r>
@@ -362,9 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1688年光荣革命 辉格党得利</t>
@@ -376,12 +365,32 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      <t>1684年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莱布尼兹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发明微积分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1683年</t>
     </r>
@@ -391,7 +400,6 @@
         <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>维也纳之战</t>
     </r>
@@ -399,9 +407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -412,7 +418,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>欧根亲王</t>
     </r>
@@ -420,9 +425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>（尤金）
 解救命悬一线的王朝</t>
@@ -430,33 +433,23 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1690年</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>约翰洛克</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约翰·洛克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -467,7 +460,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>《人类理解力论》《政府论》</t>
     </r>
@@ -484,9 +476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1702-1713年
 </t>
@@ -497,7 +487,6 @@
         <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>西班牙王位战争</t>
     </r>
@@ -505,9 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 均势限制法国扩张</t>
@@ -521,9 +508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1703年成立</t>
     </r>
@@ -533,7 +518,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>圣彼得堡</t>
     </r>
@@ -546,9 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1715年</t>
     </r>
@@ -558,7 +540,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>路易十四</t>
     </r>
@@ -566,9 +547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>去世</t>
     </r>
@@ -578,9 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1713年</t>
     </r>
@@ -590,7 +567,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>乌德勒支和约</t>
     </r>
@@ -599,7 +575,6 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 荷兰丧失海上霸权地位</t>
@@ -613,9 +588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1711-1740年查理六世建立</t>
     </r>
@@ -625,7 +598,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>奥地利帝国</t>
     </r>
@@ -633,9 +605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1716-1718年奥土战争</t>
@@ -649,9 +619,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1720年</t>
     </r>
@@ -661,7 +629,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>英国南海泡沐</t>
     </r>
@@ -669,9 +636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 辉格党取代托利党</t>
@@ -682,9 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1721年</t>
     </r>
@@ -694,7 +657,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>彼得大帝</t>
     </r>
@@ -702,9 +664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>立
 俄罗斯帝国</t>
@@ -715,9 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1722年</t>
     </r>
@@ -727,7 +685,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>康熙</t>
     </r>
@@ -735,9 +692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>逝世</t>
     </r>
@@ -746,6 +701,20 @@
     <t>1733年伏尔泰《哲学通信》</t>
   </si>
   <si>
+    <r>
+      <t>1748年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>休谟《人类理解研究》</t>
+    </r>
+  </si>
+  <si>
     <t>1741年孟德斯鸠《论法的精神》</t>
   </si>
   <si>
@@ -753,9 +722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1740年</t>
     </r>
@@ -765,7 +732,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>腓特烈大帝</t>
     </r>
@@ -774,7 +740,6 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>即位</t>
     </r>
@@ -791,13 +756,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1762年卢梭《社会契约论》</t>
     </r>
     <r>
@@ -806,7 +764,6 @@
         <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 1763年巴黎和约</t>
@@ -817,9 +774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1762年</t>
     </r>
@@ -829,7 +784,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>叶卡捷琳娜</t>
     </r>
@@ -837,9 +791,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">即位
 </t>
@@ -850,7 +802,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>“开明专制”</t>
     </r>
@@ -866,9 +817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1772年</t>
     </r>
@@ -878,7 +827,6 @@
         <color rgb="FF002060"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Denis Diderot
 </t>
@@ -890,7 +838,6 @@
         <color rgb="FF002060"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>《百科全书》</t>
     </r>
@@ -898,9 +845,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>完成</t>
     </r>
@@ -917,9 +862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1787年</t>
     </r>
@@ -929,7 +872,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>美国宪法</t>
     </r>
@@ -937,9 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>确立新政府</t>
     </r>
@@ -958,7 +898,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">法国大革命
 </t>
@@ -967,9 +906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1794年孔多塞
 《人类精神进步史纲要》</t>
@@ -984,9 +921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1796年</t>
     </r>
@@ -996,7 +931,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>叶卡捷琳娜</t>
     </r>
@@ -1004,9 +938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>退位</t>
     </r>
@@ -1030,9 +962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1804年</t>
     </r>
@@ -1042,7 +972,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>拿破仑</t>
     </r>
@@ -1050,9 +979,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>即位称帝</t>
     </r>
@@ -1068,9 +995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1814年波旁王朝复辟
 1815年</t>
@@ -1081,19 +1006,47 @@
         <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>滑铁卢战役</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      <t>1817年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑格尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《哲学全书》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1810年玛丽路易斯嫁给拿破仑
 1814年</t>
@@ -1104,7 +1057,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>维也纳会议</t>
     </r>
@@ -1112,9 +1064,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>重组欧洲政治秩序</t>
     </r>
@@ -1124,26 +1074,26 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1848年法国二月革命
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奥古斯特孔德</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>奥古斯特孔德创立实证主义学会</t>
+      </rPr>
+      <t>创立实证主义学会</t>
     </r>
   </si>
   <si>
@@ -1154,9 +1104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1841年弗里德里希·李斯特
 《政治经济学的国民体系》
@@ -1169,7 +1117,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1848年革命
 1848年2月《共产党宣言》</t>
@@ -1222,7 +1169,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>俾斯麦</t>
     </r>
@@ -1230,9 +1176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>担任首相
 1864年第一国际
@@ -1242,12 +1186,20 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马克思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>马克思《资本论》</t>
+      </rPr>
+      <t>《资本论》</t>
     </r>
   </si>
   <si>
@@ -1265,9 +1217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>从欧洲接受大量移民
 1905年爱因斯坦</t>
@@ -1278,7 +1228,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>相对论</t>
     </r>
@@ -1290,7 +1239,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">第二次工业革命
 </t>
@@ -1300,13 +1248,17 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>金本位</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>1870年</t>
     </r>
     <r>
@@ -1315,7 +1267,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>法兰西第三帝国</t>
     </r>
@@ -1323,9 +1274,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1871年巴黎公社被粗暴镇压</t>
@@ -1333,6 +1282,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>1870年普法战争
 1871年</t>
     </r>
@@ -1342,7 +1296,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>俾斯麦</t>
     </r>
@@ -1350,9 +1303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>担任</t>
     </r>
@@ -1362,7 +1313,6 @@
         <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>德意志帝国</t>
     </r>
@@ -1370,9 +1320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>宰相
 1879年德奥军事同盟</t>
@@ -1383,6 +1331,9 @@
   </si>
   <si>
     <t>1889年第二国际</t>
+  </si>
+  <si>
+    <t>尼采《权力意志》</t>
   </si>
   <si>
     <t>1894年法俄军事同盟</t>
@@ -1534,7 +1485,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>红色</t>
     </r>
@@ -1542,9 +1492,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 有影响力的人物</t>
     </r>
@@ -1556,7 +1504,6 @@
         <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>紫色</t>
     </r>
@@ -1564,55 +1511,48 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 有影响力的军事事件</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>绿色</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 有影响力的政治经济事件</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>蓝色</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 有影响力的文化事件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>海蓝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -有影响力的哲学家</t>
     </r>
   </si>
 </sst>
@@ -1621,23 +1561,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1645,35 +1585,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1685,8 +1625,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1694,14 +1664,98 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1709,121 +1763,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1840,16 +1780,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1869,6 +1809,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1881,25 +1839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,13 +1863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="6" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,7 +1899,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,7 +1977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,13 +1995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,67 +2019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,37 +2043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2229,6 +2169,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2239,21 +2194,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2269,21 +2209,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2308,6 +2233,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2321,152 +2261,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2485,29 +2425,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2515,173 +2503,137 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2689,18 +2641,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2719,60 +2659,57 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2791,7 +2728,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3039,36 +2976,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="29.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.6875" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="22.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="1" customWidth="1"/>
     <col min="19" max="20" width="20.625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
@@ -3101,7 +3038,7 @@
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="52" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -3132,7 +3069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:20">
+    <row r="2" ht="34" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -3144,17 +3081,17 @@
         <v>20</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="58" t="s">
@@ -3166,13 +3103,13 @@
       <c r="M2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="78" t="s">
@@ -3186,8 +3123,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="42" spans="1:20">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="52" spans="1:20">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4">
@@ -3196,21 +3133,21 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="61"/>
       <c r="L3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="6"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="78"/>
       <c r="R3" s="4"/>
       <c r="S3" s="80" t="s">
@@ -3219,7 +3156,7 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:20">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4">
@@ -3228,51 +3165,51 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="38"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="6"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="4"/>
       <c r="S4" s="80"/>
       <c r="T4" s="78"/>
     </row>
-    <row r="5" ht="40" customHeight="1" spans="1:20">
-      <c r="A5" s="13"/>
+    <row r="5" ht="51" spans="1:20">
+      <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>1660</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="38"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="61"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="38" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="24"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="4"/>
       <c r="S5" s="81" t="s">
@@ -3281,493 +3218,499 @@
       <c r="T5" s="78"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:20">
-      <c r="A6" s="13"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4">
         <v>1670</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="38" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="16" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="61"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="6"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="78"/>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="28" t="s">
         <v>44</v>
       </c>
       <c r="S6" s="80"/>
       <c r="T6" s="78"/>
     </row>
-    <row r="7" ht="40" customHeight="1" spans="1:20">
-      <c r="A7" s="13"/>
+    <row r="7" ht="51" spans="1:20">
+      <c r="A7" s="7"/>
       <c r="B7" s="4">
         <v>1680</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="27"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="61"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="M7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="78"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="28"/>
       <c r="S7" s="80"/>
       <c r="T7" s="78"/>
     </row>
-    <row r="8" ht="27" spans="1:20">
-      <c r="A8" s="13"/>
+    <row r="8" ht="34" spans="1:20">
+      <c r="A8" s="7"/>
       <c r="B8" s="4">
         <v>1690</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="61"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="6"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="24"/>
       <c r="Q8" s="78"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="28"/>
       <c r="S8" s="80"/>
       <c r="T8" s="78"/>
     </row>
-    <row r="9" ht="40.5" spans="1:20">
-      <c r="A9" s="13"/>
+    <row r="9" ht="51" spans="1:20">
+      <c r="A9" s="7"/>
       <c r="B9" s="4">
         <v>1700</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="64"/>
       <c r="K9" s="61"/>
       <c r="L9" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="24"/>
       <c r="Q9" s="78"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="80"/>
       <c r="T9" s="78"/>
     </row>
-    <row r="10" ht="54" spans="1:20">
-      <c r="A10" s="13"/>
+    <row r="10" ht="68" spans="1:20">
+      <c r="A10" s="7"/>
       <c r="B10" s="4">
         <v>1710</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="67" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="29" t="s">
         <v>56</v>
       </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="66" t="s">
+        <v>57</v>
+      </c>
       <c r="K10" s="61"/>
-      <c r="L10" s="68" t="s">
-        <v>57</v>
+      <c r="L10" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="M10" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="78"/>
-      <c r="R10" s="11"/>
+      <c r="R10" s="28"/>
       <c r="S10" s="80"/>
       <c r="T10" s="78"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:20">
-      <c r="A11" s="13"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4">
         <v>1720</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="D11" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="4"/>
       <c r="K11" s="61"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="6"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="24"/>
       <c r="Q11" s="78"/>
-      <c r="R11" s="11"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T11" s="78"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:20">
-      <c r="A12" s="13"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4">
         <v>1730</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="26"/>
       <c r="J12" s="4"/>
       <c r="K12" s="61"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="6"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="78"/>
-      <c r="R12" s="11"/>
+      <c r="R12" s="28"/>
       <c r="S12" s="80"/>
       <c r="T12" s="78"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:20">
-      <c r="A13" s="13"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="4">
         <v>1740</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="26"/>
       <c r="J13" s="4"/>
       <c r="K13" s="61"/>
-      <c r="L13" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="60"/>
+      <c r="L13" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="73"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="78"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="80"/>
       <c r="T13" s="78"/>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:20">
-      <c r="A14" s="13"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4">
         <v>1750</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="8"/>
+      <c r="F14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="26"/>
       <c r="J14" s="4"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="60" t="s">
-        <v>67</v>
+      <c r="L14" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="73" t="s">
+        <v>69</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="78"/>
       <c r="R14" s="82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S14" s="80"/>
       <c r="T14" s="78"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:20">
-      <c r="A15" s="13"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4">
         <v>1760</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="F15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="26"/>
       <c r="J15" s="4"/>
       <c r="K15" s="61"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="69" t="s">
-        <v>70</v>
+      <c r="L15" s="67"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="76" t="s">
+        <v>72</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="78"/>
-      <c r="R15" s="11"/>
+      <c r="R15" s="28"/>
       <c r="S15" s="80"/>
       <c r="T15" s="78"/>
     </row>
-    <row r="16" ht="27" spans="1:20">
-      <c r="A16" s="13"/>
+    <row r="16" ht="34" spans="1:20">
+      <c r="A16" s="7"/>
       <c r="B16" s="4">
         <v>1770</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="8"/>
+      <c r="F16" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="4"/>
       <c r="K16" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="63" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="L16" s="67"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="78"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="28"/>
       <c r="S16" s="80"/>
       <c r="T16" s="78"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:20">
-      <c r="A17" s="13"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4">
         <v>1780</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>76</v>
+      <c r="C17" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="4"/>
       <c r="K17" s="61"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="60"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="73"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="78"/>
-      <c r="R17" s="11" t="s">
-        <v>78</v>
+      <c r="R17" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="S17" s="80"/>
       <c r="T17" s="78"/>
     </row>
-    <row r="18" ht="40" customHeight="1" spans="1:20">
-      <c r="A18" s="13"/>
+    <row r="18" ht="51" spans="1:20">
+      <c r="A18" s="7"/>
       <c r="B18" s="4">
         <v>1790</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="8"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="26"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="68"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="66" t="s">
-        <v>81</v>
+      <c r="K18" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="67"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="75" t="s">
+        <v>83</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="78"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="28"/>
       <c r="S18" s="80"/>
       <c r="T18" s="78"/>
     </row>
-    <row r="19" ht="40" customHeight="1" spans="1:20">
-      <c r="A19" s="29" t="s">
-        <v>82</v>
+    <row r="19" ht="17" spans="1:20">
+      <c r="A19" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B19" s="4">
         <v>1800</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>84</v>
+      <c r="C19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="32" t="s">
-        <v>86</v>
+      <c r="F19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="60"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="78"/>
-      <c r="R19" s="11"/>
+      <c r="R19" s="28"/>
       <c r="S19" s="80"/>
       <c r="T19" s="78"/>
     </row>
-    <row r="20" ht="40" customHeight="1" spans="1:20">
-      <c r="A20" s="33"/>
+    <row r="20" ht="34" spans="1:20">
+      <c r="A20" s="13"/>
       <c r="B20" s="4">
         <v>1810</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>89</v>
+      <c r="F20" s="43"/>
+      <c r="G20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="60"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="73"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="78"/>
-      <c r="R20" s="11"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="80"/>
       <c r="T20" s="78"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:20">
-      <c r="A21" s="33"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4">
         <v>1820</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="60"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="73"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="4"/>
@@ -3775,463 +3718,465 @@
       <c r="T21" s="78"/>
     </row>
     <row r="22" ht="40" customHeight="1" spans="1:20">
-      <c r="A22" s="33"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4">
         <v>1830</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="60"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="73"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="4"/>
       <c r="S22" s="80"/>
       <c r="T22" s="78"/>
     </row>
-    <row r="23" ht="54" spans="1:20">
-      <c r="A23" s="33"/>
+    <row r="23" ht="68" spans="1:20">
+      <c r="A23" s="13"/>
       <c r="B23" s="4">
         <v>1840</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>93</v>
+      <c r="F23" s="43"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="60"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="73"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="4"/>
       <c r="S23" s="83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T23" s="78"/>
     </row>
     <row r="24" ht="40" customHeight="1" spans="1:20">
-      <c r="A24" s="33"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4">
         <v>1850</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>98</v>
+      <c r="F24" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="68"/>
+      <c r="K24" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="67"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="60"/>
+      <c r="N24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="73"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S24" s="83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T24" s="78"/>
     </row>
-    <row r="25" ht="54" spans="1:20">
-      <c r="A25" s="33"/>
+    <row r="25" ht="68" spans="1:20">
+      <c r="A25" s="13"/>
       <c r="B25" s="4">
         <v>1860</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>103</v>
+      <c r="C25" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="72" t="s">
-        <v>106</v>
+      <c r="K25" s="67"/>
+      <c r="L25" s="70" t="s">
+        <v>109</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="60"/>
+      <c r="N25" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="73"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="T25" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="26" ht="40" customHeight="1" spans="1:20">
-      <c r="A26" s="33"/>
+    <row r="26" ht="51" spans="1:20">
+      <c r="A26" s="13"/>
       <c r="B26" s="4">
         <v>1870</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>110</v>
+      <c r="C26" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="18" t="s">
-        <v>112</v>
+      <c r="F26" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="72" t="s">
-        <v>113</v>
+      <c r="K26" s="67"/>
+      <c r="L26" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="60" t="s">
-        <v>114</v>
+      <c r="N26" s="10"/>
+      <c r="O26" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="80"/>
-      <c r="T26" s="27"/>
+      <c r="T26" s="10"/>
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:20">
-      <c r="A27" s="33"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4">
         <v>1880</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="8"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="72" t="s">
+        <v>119</v>
+      </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="60"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="73"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="80"/>
-      <c r="T27" s="27"/>
+      <c r="T27" s="10"/>
     </row>
     <row r="28" ht="40" customHeight="1" spans="1:20">
-      <c r="A28" s="33"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4">
         <v>1890</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="8"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68" t="s">
-        <v>117</v>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="75" t="s">
-        <v>118</v>
+      <c r="N28" s="10"/>
+      <c r="O28" s="74" t="s">
+        <v>122</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="T28" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="T28" s="10"/>
     </row>
     <row r="29" ht="40" customHeight="1" spans="1:20">
-      <c r="A29" s="33"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4">
         <v>1900</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>122</v>
+      <c r="E29" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="60" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="T29" s="27"/>
+        <v>129</v>
+      </c>
+      <c r="T29" s="10"/>
     </row>
     <row r="30" ht="40" customHeight="1" spans="1:20">
-      <c r="A30" s="33"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="4">
         <v>1910</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>126</v>
+      <c r="C30" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="45" t="s">
-        <v>127</v>
+      <c r="F30" s="49"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="60" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="73" t="s">
+        <v>133</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S30" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="S30" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="T30" s="10"/>
     </row>
-    <row r="31" ht="67.5" spans="1:20">
-      <c r="A31" s="46"/>
+    <row r="31" ht="84" spans="1:20">
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>1920</v>
       </c>
-      <c r="C31" s="47" t="s">
-        <v>132</v>
+      <c r="C31" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="8"/>
+      <c r="F31" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="45" t="s">
-        <v>134</v>
+      <c r="I31" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="50"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="45" t="s">
-        <v>136</v>
+      <c r="N31" s="10"/>
+      <c r="O31" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T31" s="27"/>
+        <v>141</v>
+      </c>
+      <c r="T31" s="10"/>
     </row>
-    <row r="32" ht="40" customHeight="1" spans="1:20">
+    <row r="32" ht="51" spans="1:20">
       <c r="A32" s="3"/>
       <c r="B32" s="4">
         <v>1930</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>138</v>
+      <c r="C32" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="45" t="s">
-        <v>139</v>
+      <c r="F32" s="51"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="M32" s="6"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="24"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="T32" s="27"/>
+      <c r="S32" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="T32" s="10"/>
     </row>
-    <row r="33" ht="54" spans="1:20">
+    <row r="33" ht="68" spans="1:20">
       <c r="A33" s="3"/>
       <c r="B33" s="4">
         <v>1940</v>
       </c>
-      <c r="C33" s="47" t="s">
-        <v>143</v>
+      <c r="C33" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="6"/>
+      <c r="F33" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="24"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="O33" s="45" t="s">
-        <v>148</v>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="34" ht="40" customHeight="1" spans="1:20">
-      <c r="A34" s="51" t="s">
-        <v>151</v>
+    <row r="34" ht="51" spans="1:20">
+      <c r="A34" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="B34" s="4">
         <v>1950</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="45" t="s">
-        <v>152</v>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="50"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="45" t="s">
-        <v>154</v>
+      <c r="S34" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="T34" s="4"/>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:20">
-      <c r="A35" s="52"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4">
         <v>1960</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="50"/>
+      <c r="K35" s="52"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -4240,24 +4185,24 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="T35" s="4"/>
     </row>
     <row r="36" ht="40" customHeight="1" spans="1:20">
-      <c r="A36" s="52"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4">
         <v>1970</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="50"/>
+      <c r="K36" s="52"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -4269,19 +4214,19 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" ht="40" customHeight="1" spans="1:20">
-      <c r="A37" s="52"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4">
         <v>1980</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="50"/>
+      <c r="K37" s="52"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -4293,19 +4238,19 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" ht="40" customHeight="1" spans="1:20">
-      <c r="A38" s="52"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4">
         <v>1990</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="50"/>
+      <c r="K38" s="52"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -4317,19 +4262,19 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" ht="40" customHeight="1" spans="1:20">
-      <c r="A39" s="53"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="4">
         <v>2000</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="50"/>
+      <c r="K39" s="52"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -4340,24 +4285,29 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="54" t="s">
-        <v>157</v>
+    <row r="40" ht="17" spans="6:6">
+      <c r="F40" s="53" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="55" t="s">
-        <v>158</v>
+    <row r="41" ht="17" spans="6:6">
+      <c r="F41" s="54" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="56" t="s">
-        <v>159</v>
+    <row r="42" ht="17" spans="6:6">
+      <c r="F42" s="55" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="57" t="s">
-        <v>160</v>
+    <row r="43" ht="17" spans="6:6">
+      <c r="F43" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="6:6">
+      <c r="F44" s="57" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
